--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hsp90aa1-Cftr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hsp90aa1-Cftr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2826053333333</v>
+        <v>77.127561</v>
       </c>
       <c r="H2">
-        <v>465.847816</v>
+        <v>231.382683</v>
       </c>
       <c r="I2">
-        <v>0.4511422706622114</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="J2">
-        <v>0.4511422706622115</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02245766666666667</v>
+        <v>0.1935556666666667</v>
       </c>
       <c r="N2">
-        <v>0.067373</v>
+        <v>0.5806669999999999</v>
       </c>
       <c r="O2">
-        <v>0.1039642614653416</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1039642614653416</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.487284989707555</v>
+        <v>14.928476487729</v>
       </c>
       <c r="R2">
-        <v>31.385564907368</v>
+        <v>134.356288389561</v>
       </c>
       <c r="S2">
-        <v>0.04690267298519407</v>
+        <v>0.2899056040435161</v>
       </c>
       <c r="T2">
-        <v>0.04690267298519408</v>
+        <v>0.2899056040435161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2826053333333</v>
+        <v>117.8650183333333</v>
       </c>
       <c r="H3">
-        <v>465.847816</v>
+        <v>353.595055</v>
       </c>
       <c r="I3">
-        <v>0.4511422706622114</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="J3">
-        <v>0.4511422706622115</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,30 +617,30 @@
         <v>0.1935556666666667</v>
       </c>
       <c r="N3">
-        <v>0.580667</v>
+        <v>0.5806669999999999</v>
       </c>
       <c r="O3">
-        <v>0.8960357385346585</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8960357385346583</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>30.05582819703022</v>
+        <v>22.81344220018722</v>
       </c>
       <c r="R3">
-        <v>270.502453773272</v>
+        <v>205.320979801685</v>
       </c>
       <c r="S3">
-        <v>0.4042395976770173</v>
+        <v>0.443028781054351</v>
       </c>
       <c r="T3">
-        <v>0.4042395976770174</v>
+        <v>0.443028781054351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.8650183333333</v>
+        <v>71.05112566666666</v>
       </c>
       <c r="H4">
-        <v>353.595055</v>
+        <v>213.153377</v>
       </c>
       <c r="I4">
-        <v>0.3424330232507294</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="J4">
-        <v>0.3424330232507295</v>
+        <v>0.2670656149021329</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02245766666666667</v>
+        <v>0.1935556666666667</v>
       </c>
       <c r="N4">
-        <v>0.067373</v>
+        <v>0.5806669999999999</v>
       </c>
       <c r="O4">
-        <v>0.1039642614653416</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1039642614653416</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.646973293390556</v>
+        <v>13.75234799582878</v>
       </c>
       <c r="R4">
-        <v>23.822759640515</v>
+        <v>123.771131962459</v>
       </c>
       <c r="S4">
-        <v>0.03560079636360625</v>
+        <v>0.267065614902133</v>
       </c>
       <c r="T4">
-        <v>0.03560079636360625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>117.8650183333333</v>
-      </c>
-      <c r="H5">
-        <v>353.595055</v>
-      </c>
-      <c r="I5">
-        <v>0.3424330232507294</v>
-      </c>
-      <c r="J5">
-        <v>0.3424330232507295</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.1935556666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.580667</v>
-      </c>
-      <c r="O5">
-        <v>0.8960357385346585</v>
-      </c>
-      <c r="P5">
-        <v>0.8960357385346583</v>
-      </c>
-      <c r="Q5">
-        <v>22.81344220018723</v>
-      </c>
-      <c r="R5">
-        <v>205.320979801685</v>
-      </c>
-      <c r="S5">
-        <v>0.3068322268871232</v>
-      </c>
-      <c r="T5">
-        <v>0.3068322268871232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>71.05112566666666</v>
-      </c>
-      <c r="H6">
-        <v>213.153377</v>
-      </c>
-      <c r="I6">
-        <v>0.2064247060870591</v>
-      </c>
-      <c r="J6">
-        <v>0.2064247060870591</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.02245766666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.067373</v>
-      </c>
-      <c r="O6">
-        <v>0.1039642614653416</v>
-      </c>
-      <c r="P6">
-        <v>0.1039642614653416</v>
-      </c>
-      <c r="Q6">
-        <v>1.595642496513444</v>
-      </c>
-      <c r="R6">
-        <v>14.360782468621</v>
-      </c>
-      <c r="S6">
-        <v>0.02146079211654131</v>
-      </c>
-      <c r="T6">
-        <v>0.02146079211654131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>71.05112566666666</v>
-      </c>
-      <c r="H7">
-        <v>213.153377</v>
-      </c>
-      <c r="I7">
-        <v>0.2064247060870591</v>
-      </c>
-      <c r="J7">
-        <v>0.2064247060870591</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.1935556666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.580667</v>
-      </c>
-      <c r="O7">
-        <v>0.8960357385346585</v>
-      </c>
-      <c r="P7">
-        <v>0.8960357385346583</v>
-      </c>
-      <c r="Q7">
-        <v>13.75234799582878</v>
-      </c>
-      <c r="R7">
-        <v>123.771131962459</v>
-      </c>
-      <c r="S7">
-        <v>0.1849639139705178</v>
-      </c>
-      <c r="T7">
-        <v>0.1849639139705178</v>
+        <v>0.2670656149021329</v>
       </c>
     </row>
   </sheetData>
